--- a/运营/竞争对手分析/竞争对手营业执照.xlsx
+++ b/运营/竞争对手分析/竞争对手营业执照.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\编程教育\paper work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\techedu\运营\竞争对手分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB7CE4-C723-42CF-BBE2-A0007C6A09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0E543F-13C7-4CFD-B2BE-F0BC7C78492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{30E57E90-BB63-4922-BAED-01B52B9E8AD0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>清华土豆教编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小武老师的小店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无（依照《电子商务法》第十条不需要办理市场主题登记情形）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大智编程（福州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,13 +118,106 @@
   </si>
   <si>
     <t>古田县智成软件开发工作室 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>杭州吾艺奇教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴校长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州吾艺奇教育科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>517编程 Online Judge (517coding.com)</t>
+  </si>
+  <si>
+    <t>深圳源码教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达编程 (ponycoding.com)</t>
+  </si>
+  <si>
+    <t>深圳源码教育科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>深圳市慕皓科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市慕皓科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>余博士教编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://coolguymaker.com/</t>
+  </si>
+  <si>
+    <t>浙江酷哥创客教育科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>浙江酷哥创客教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺老师编程竞赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南枭为科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南枭为科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>李校教编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州小极客教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂靠在“101名师工厂”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华小武博士教编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州小极客教育科技有限公司 - 爱企查 (baidu.com)</t>
+  </si>
+  <si>
+    <t>编程侯老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安阳一兆一立教育科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home | 编程侯老师 (kaola101.com)</t>
+  </si>
+  <si>
+    <t>安阳一兆一立教育科技有限公司 - 爱企查 (baidu.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +260,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +305,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF62F75B-1FBC-4947-8035-197B55BFD378}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="54.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="45.25" customWidth="1"/>
@@ -616,13 +712,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -632,8 +728,8 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -647,36 +743,115 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -689,6 +864,16 @@
     <hyperlink ref="E5" r:id="rId5" display="https://aiqicha.baidu.com/detail/compinfo?pid=30270108057426&amp;rq=ef&amp;pd=ee&amp;from=ps" xr:uid="{43B05E2E-188C-409D-85DB-72C826932A52}"/>
     <hyperlink ref="F5" r:id="rId6" display="https://www.joyskid.cn/index2021.aspx" xr:uid="{693430F3-FB20-463A-882D-9754DF960A31}"/>
     <hyperlink ref="E9" r:id="rId7" display="https://aiqicha.baidu.com/company_detail_90821395256269" xr:uid="{15FA368F-5E9D-44A9-A4F6-98C07B659C33}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://aiqicha.baidu.com/company_detail_15416731624139" xr:uid="{A3903D07-B5B6-419F-8C37-CDF5CFFAC78E}"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://517coding.com/" xr:uid="{3BE803B3-44A7-478C-AE90-B34E8D7DE549}"/>
+    <hyperlink ref="F8" r:id="rId10" display="http://ponycoding.com/" xr:uid="{114D38D7-9230-4C85-A684-F5496F6214D7}"/>
+    <hyperlink ref="E8" r:id="rId11" display="https://aiqicha.baidu.com/company_detail_25298072697124" xr:uid="{B21379FC-F4FE-475F-85A3-8AAA7A2CDAAA}"/>
+    <hyperlink ref="E6" r:id="rId12" display="https://aiqicha.baidu.com/company_detail_36161205045245" xr:uid="{8B4A7D11-D85B-472A-9B26-C31C8E52E9AA}"/>
+    <hyperlink ref="E11" r:id="rId13" display="https://aiqicha.baidu.com/company_detail_21173220866618?t=0" xr:uid="{027C91C3-D1E1-4AF7-8712-AEDA1F93D221}"/>
+    <hyperlink ref="E12" r:id="rId14" display="https://aiqicha.baidu.com/company_detail_10179433148768" xr:uid="{AC5FF0AC-C18E-4D77-9B6B-B0E0C3963550}"/>
+    <hyperlink ref="E13" r:id="rId15" display="https://aiqicha.baidu.com/company_detail_11393059961913" xr:uid="{8CEC9848-7511-4A5B-B969-7174972B8A81}"/>
+    <hyperlink ref="F14" r:id="rId16" display="https://www.kaola101.com/" xr:uid="{F1AC355D-D8BA-4EE0-90EB-3CD31F5FD0C5}"/>
+    <hyperlink ref="E14" r:id="rId17" display="https://aiqicha.baidu.com/company_detail_26595271728829" xr:uid="{D09B435D-2B27-4AA1-A46A-3E2F3BBBE007}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
